--- a/Planilhas/planilhas_do_sistema/checkin_aberto.xlsx
+++ b/Planilhas/planilhas_do_sistema/checkin_aberto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AZUL/123321</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TESTE PASSAGEIRO 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AZUL/H4J321</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PASSAGEIRO 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AZUL/KJ432K3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PASSAGEIRO 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AZUL/432WSF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PASSAGEIRO 10 VOLTA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
